--- a/dtpu_configurations/only_integer16/80mhz/mxu_3x3/utilization.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_3x3/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>16.5</v>
+        <v>17.712406158447266</v>
       </c>
       <c r="C2" t="n" s="4">
         <v>5.344827651977539</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>11.11936092376709</v>
+        <v>11.570488929748535</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>34.28571701049805</v>
+        <v>45.71428680419922</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>2.7272727489471436</v>
